--- a/Wordle_Solver/Answers_Ordered.xlsx
+++ b/Wordle_Solver/Answers_Ordered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bastianstassen/BartmanEH.github.io/Wordle_Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AB424-3890-A64E-BF35-33330A3B5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA4D94A-F050-B148-A1B1-2DBD56B09B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="2980" windowWidth="28040" windowHeight="17440" xr2:uid="{9859DFE2-9DEC-254A-81A7-BF4D85BE77D5}"/>
   </bookViews>
@@ -7312,8 +7312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF2E9B-FAE5-9F42-A97A-471626FCE536}">
   <dimension ref="A1:G2309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2273" workbookViewId="0">
-      <selection activeCell="E2304" sqref="E2304:E2309"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15436,14 +15436,14 @@
         <v/>
       </c>
       <c r="E325" t="s">
-        <v>327</v>
+        <v>2263</v>
       </c>
       <c r="F325" t="s">
         <v>2263</v>
       </c>
       <c r="G325" t="str">
         <f t="shared" si="11"/>
-        <v>!</v>
+        <v/>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -15461,14 +15461,14 @@
         <v/>
       </c>
       <c r="E326" t="s">
-        <v>328</v>
+        <v>2264</v>
       </c>
       <c r="F326" t="s">
         <v>2264</v>
       </c>
       <c r="G326" t="str">
         <f t="shared" si="11"/>
-        <v>!</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
